--- a/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20250929_233007.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20250929_233007.xlsx
@@ -5059,7 +5059,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
